--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuelingliang/Work/Demo/ApiTestAgent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA1F9CB-D788-E44B-A418-FD52783AA983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271141F0-C6B5-3448-8107-8BFF486A6069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3140" yWindow="2140" windowWidth="29400" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>请求头</t>
   </si>
   <si>
-    <t>提取变量</t>
-  </si>
-  <si>
     <t>预期响应字段</t>
   </si>
   <si>
@@ -82,6 +79,10 @@
   </si>
   <si>
     <t>{}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取变量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -516,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -547,33 +548,33 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -581,47 +582,47 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
